--- a/outputs-HGR-r202/g__Schaedlerella.xlsx
+++ b/outputs-HGR-r202/g__Schaedlerella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,17 +469,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26524.fa</t>
+          <t>even_MAG-GUT11274.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9424818819328292</v>
+        <v>0.7749882944781895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0575181180671708</v>
+        <v>0.2250117055218105</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9424818819328292</v>
+        <v>0.7749882944781895</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,17 +495,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32255.fa</t>
+          <t>even_MAG-GUT26524.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8876101092914637</v>
+        <v>0.9424818819328292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1123898907085364</v>
+        <v>0.0575181180671708</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8876101092914637</v>
+        <v>0.9424818819328292</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -521,17 +521,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35486.fa</t>
+          <t>even_MAG-GUT32255.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9466340369486648</v>
+        <v>0.8876101092914637</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05336596305133526</v>
+        <v>0.1123898907085364</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9466340369486648</v>
+        <v>0.8876101092914637</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -547,17 +547,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9618.fa</t>
+          <t>even_MAG-GUT35486.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9491150500013419</v>
+        <v>0.9466340369486648</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05088494999865811</v>
+        <v>0.05336596305133526</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9491150500013419</v>
+        <v>0.9466340369486648</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -573,24 +573,102 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT51929.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8625947001345416</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1374052998654583</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8625947001345416</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58131.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8260403495498186</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1739596504501813</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8260403495498186</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9618.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9491150500013419</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05088494999865811</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9491150500013419</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9642.fa</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B9" t="n">
         <v>0.9504705943418433</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C9" t="n">
         <v>0.04952940565815669</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D9" t="n">
         <v>0.9504705943418433</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>

--- a/outputs-HGR-r202/g__Schaedlerella.xlsx
+++ b/outputs-HGR-r202/g__Schaedlerella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +772,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +798,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -754,6 +824,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -775,6 +850,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -796,6 +876,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -817,6 +902,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -838,6 +928,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -859,6 +954,11 @@
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -876,6 +976,11 @@
         <v>0.7752205584598501</v>
       </c>
       <c r="E21" t="inlineStr">
+        <is>
+          <t>s__Schaedlerella glycyrrhizinilytica</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>

--- a/outputs-HGR-r202/g__Schaedlerella.xlsx
+++ b/outputs-HGR-r202/g__Schaedlerella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,17 +469,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11274.fa</t>
+          <t>even_MAG-GUT26524.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7749882944781895</v>
+        <v>0.9424818819328292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2250117055218105</v>
+        <v>0.0575181180671708</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7749882944781895</v>
+        <v>0.9424818819328292</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,17 +495,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17299.fa</t>
+          <t>even_MAG-GUT32255.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.780304609287809</v>
+        <v>0.8876101092914637</v>
       </c>
       <c r="C3" t="n">
-        <v>0.219695390712191</v>
+        <v>0.1123898907085364</v>
       </c>
       <c r="D3" t="n">
-        <v>0.780304609287809</v>
+        <v>0.8876101092914637</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -521,17 +521,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26524.fa</t>
+          <t>even_MAG-GUT35486.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9424818819328292</v>
+        <v>0.9466340369486648</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0575181180671708</v>
+        <v>0.05336596305133526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9424818819328292</v>
+        <v>0.9466340369486648</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -547,17 +547,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32255.fa</t>
+          <t>even_MAG-GUT9618.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8876101092914637</v>
+        <v>0.9491150500013419</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1123898907085364</v>
+        <v>0.05088494999865811</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8876101092914637</v>
+        <v>0.9491150500013419</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -573,17 +573,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35486.fa</t>
+          <t>even_MAG-GUT9642.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9466340369486648</v>
+        <v>0.9504705943418433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05336596305133526</v>
+        <v>0.04952940565815669</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9466340369486648</v>
+        <v>0.9504705943418433</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -591,396 +591,6 @@
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT58131.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8260403495498186</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1739596504501813</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.8260403495498186</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9618.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9491150500013419</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05088494999865811</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9491150500013419</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9642.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9504705943418433</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04952940565815669</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9504705943418433</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT48321.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.7068470554664443</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2931529445335557</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7068470554664443</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT51921.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.7764940511187992</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2235059488812007</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7764940511187992</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT57196.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.7070753430653478</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2929246569346521</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.7070753430653478</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT57727.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.7300412097378702</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2699587902621298</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.7300412097378702</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT58131.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.8260403495498186</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1739596504501813</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.8260403495498186</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT58180.fa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.7965383328254431</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2034616671745569</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.7965383328254431</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT60840.fa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.6928825305401963</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3071174694598037</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6928825305401963</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT640.fa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.7557362887724746</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2442637112275255</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.7557362887724746</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9461.fa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.6731776158617402</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3268223841382599</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.6731776158617402</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9618.fa</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9491150500013419</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.05088494999865811</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9491150500013419</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9642.fa</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9504705943418433</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.04952940565815669</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9504705943418433</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9674.fa</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.7752205584598501</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.22477944154015</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.7752205584598501</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
         <is>
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>

--- a/outputs-HGR-r202/g__Schaedlerella.xlsx
+++ b/outputs-HGR-r202/g__Schaedlerella.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
+          <t>s__Schaedlerella glycyrrhizinilytica(reject)</t>
         </is>
       </c>
     </row>
